--- a/other2/thomas/prefixSum/prefixSum2d.xlsx
+++ b/other2/thomas/prefixSum/prefixSum2d.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\other2\thomas\SuffixArray\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\shawnGitHub\other2\thomas\prefixSum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF88DB5-7610-40BA-A204-E108B6D541D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733B137E-3F55-4463-A4B2-FFD6EDC90195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="16400" xr2:uid="{B4D864AD-4CF2-4646-938D-6AE0F0F9445B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="16395" xr2:uid="{B4D864AD-4CF2-4646-938D-6AE0F0F9445B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2000,19 +2000,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FAA17A-29D8-4113-841E-41EAB7C13B83}">
   <dimension ref="A1:AL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="X39" sqref="X39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T13" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="5.6640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.6640625" style="1"/>
+    <col min="1" max="6" width="5.625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.625" style="1"/>
     <col min="9" max="14" width="6.5" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="1"/>
+    <col min="15" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2350,12 +2350,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>1</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>1</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>3</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>4</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>5</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I30" s="10" t="s">
         <v>1</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J31" s="2">
         <v>1</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I32" s="2">
         <v>1</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="9:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:38" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I33" s="2">
         <v>2</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="9:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:38" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I34" s="2">
         <v>3</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="9:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:38" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I35" s="2">
         <v>4</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="9:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:38" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I36" s="2">
         <v>5</v>
       </c>
@@ -3580,7 +3580,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/other2/thomas/prefixSum/prefixSum2d.xlsx
+++ b/other2/thomas/prefixSum/prefixSum2d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\shawnGitHub\other2\thomas\prefixSum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\other2\thomas\prefixSum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733B137E-3F55-4463-A4B2-FFD6EDC90195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230A9901-C8B1-4501-AB8F-8BFBF60A7709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="16395" xr2:uid="{B4D864AD-4CF2-4646-938D-6AE0F0F9445B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37200" windowHeight="19515" xr2:uid="{B4D864AD-4CF2-4646-938D-6AE0F0F9445B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -929,8 +929,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19592925" y="6654799"/>
-          <a:ext cx="1044575" cy="755651"/>
+          <a:off x="19507200" y="6769099"/>
+          <a:ext cx="1041400" cy="749301"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2000,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FAA17A-29D8-4113-841E-41EAB7C13B83}">
   <dimension ref="A1:AL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T13" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" activeCellId="1" sqref="K4 B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
